--- a/work-topic-selection-backend/src/main/resources/2022届教师原始名单.xlsx
+++ b/work-topic-selection-backend/src/main/resources/2022届教师原始名单.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25272" windowHeight="12732"/>
+    <workbookView windowWidth="12468" windowHeight="12684"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$199</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="419">
   <si>
     <t>序号</t>
   </si>
@@ -81,7 +81,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>张巍</t>
+    <t>张巍1</t>
   </si>
   <si>
     <t>4</t>
@@ -1020,8 +1020,7 @@
     <t>155</t>
   </si>
   <si>
-    <t xml:space="preserve">夏热帕提·阿不来提
-</t>
+    <t>夏热帕提·阿不来提</t>
   </si>
   <si>
     <t>156</t>
@@ -1069,67 +1068,73 @@
     <t>163</t>
   </si>
   <si>
+    <t>蔡尚德</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
     <t>吴恒志</t>
   </si>
   <si>
     <t>数据科学与大数据技术（中外班）</t>
   </si>
   <si>
-    <t>164</t>
+    <t>165</t>
   </si>
   <si>
     <t>王轶捷</t>
   </si>
   <si>
-    <t>165</t>
+    <t>166</t>
   </si>
   <si>
     <t>莫铭伦</t>
   </si>
   <si>
-    <t>166</t>
+    <t>167</t>
   </si>
   <si>
     <t>柴进</t>
   </si>
   <si>
-    <t>167</t>
+    <t>168</t>
   </si>
   <si>
     <t>曾铁勇</t>
   </si>
   <si>
-    <t>168</t>
+    <t>169</t>
   </si>
   <si>
     <t>哇可儿RIAZ, WAQAR</t>
   </si>
   <si>
-    <t>169</t>
+    <t>170</t>
   </si>
   <si>
     <t>大海AL-BESHARI MOHAMMED</t>
   </si>
   <si>
-    <t>170</t>
+    <t>171</t>
   </si>
   <si>
     <t>伯腾BOATENG DERRICK</t>
   </si>
   <si>
-    <t>171</t>
+    <t>172</t>
   </si>
   <si>
     <t>汉阳Muhammad Bilal</t>
   </si>
   <si>
-    <t>172</t>
+    <t>173</t>
   </si>
   <si>
     <t>阿迪Adeel Akram</t>
   </si>
   <si>
-    <t>173</t>
+    <t>174</t>
   </si>
   <si>
     <t>黄中友</t>
@@ -1138,85 +1143,85 @@
     <t>通信工程</t>
   </si>
   <si>
-    <t>174</t>
+    <t>175</t>
   </si>
   <si>
     <t>田文春</t>
   </si>
   <si>
-    <t>175</t>
+    <t>176</t>
   </si>
   <si>
     <t>梁奂晖</t>
   </si>
   <si>
-    <t>176</t>
+    <t>177</t>
   </si>
   <si>
     <t>张胜田</t>
   </si>
   <si>
-    <t>177</t>
+    <t>178</t>
   </si>
   <si>
     <t>何伟宏</t>
   </si>
   <si>
-    <t>178</t>
+    <t>179</t>
   </si>
   <si>
     <t>胡静</t>
   </si>
   <si>
-    <t>179</t>
+    <t>180</t>
   </si>
   <si>
     <t>廖龙光</t>
   </si>
   <si>
-    <t>180</t>
+    <t>181</t>
   </si>
   <si>
     <t>彭石</t>
   </si>
   <si>
-    <t>181</t>
+    <t>182</t>
   </si>
   <si>
     <t>方卫强</t>
   </si>
   <si>
-    <t>182</t>
+    <t>183</t>
   </si>
   <si>
     <t>张锦丽</t>
   </si>
   <si>
-    <t>183</t>
+    <t>184</t>
   </si>
   <si>
     <t>班效强</t>
   </si>
   <si>
-    <t>184</t>
+    <t>185</t>
   </si>
   <si>
     <t>黄红</t>
   </si>
   <si>
-    <t>185</t>
+    <t>186</t>
   </si>
   <si>
     <t>梁嘉潮</t>
   </si>
   <si>
-    <t>186</t>
+    <t>187</t>
   </si>
   <si>
     <t>谭劲</t>
   </si>
   <si>
-    <t>187</t>
+    <t>188</t>
   </si>
   <si>
     <t>邵孟良</t>
@@ -1225,61 +1230,61 @@
     <t>智能科学与技术</t>
   </si>
   <si>
-    <t>188</t>
+    <t>189</t>
   </si>
   <si>
     <t>俞新凯</t>
   </si>
   <si>
-    <t>189</t>
+    <t>190</t>
   </si>
   <si>
     <t>原伟</t>
   </si>
   <si>
-    <t>190</t>
+    <t>191</t>
   </si>
   <si>
     <t>曹红杏</t>
   </si>
   <si>
-    <t>191</t>
+    <t>192</t>
   </si>
   <si>
     <t>何思远</t>
   </si>
   <si>
-    <t>192</t>
+    <t>193</t>
   </si>
   <si>
     <t>王君</t>
   </si>
   <si>
-    <t>193</t>
+    <t>194</t>
   </si>
   <si>
     <t>成斌</t>
   </si>
   <si>
-    <t>194</t>
+    <t>195</t>
   </si>
   <si>
     <t>朱爱华</t>
   </si>
   <si>
-    <t>195</t>
+    <t>196</t>
   </si>
   <si>
     <t>陈景伟</t>
   </si>
   <si>
-    <t>196</t>
+    <t>197</t>
   </si>
   <si>
     <t>栗英杰</t>
   </si>
   <si>
-    <t>197</t>
+    <t>198</t>
   </si>
   <si>
     <t>张龙</t>
@@ -1719,6 +1724,19 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1726,19 +1744,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2050,10 +2055,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2081,85 +2089,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2478,534 +2468,534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H199"/>
+  <sheetPr/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E189" sqref="E189"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.2083333333333" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17" style="3" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32.25" style="5" customWidth="1"/>
+    <col min="5" max="6" width="17" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+    <row r="1" customHeight="1" spans="1:7">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="7" t="s">
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="17">
-        <v>5</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="12">
+        <v>5</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" hidden="1" customHeight="1" spans="1:8">
-      <c r="A3" s="7" t="s">
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9">
-        <v>5</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" hidden="1" customHeight="1" spans="1:8">
-      <c r="A4" s="7" t="s">
+      <c r="E3" s="10">
+        <v>5</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9">
-        <v>8</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" hidden="1" customHeight="1" spans="1:8">
-      <c r="A5" s="7" t="s">
+      <c r="E4" s="10">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9">
-        <v>8</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="E5" s="10">
+        <v>8</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" hidden="1" customHeight="1" spans="1:8">
-      <c r="A6" s="7" t="s">
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9">
-        <v>8</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="E6" s="10">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" hidden="1" customHeight="1" spans="1:8">
-      <c r="A7" s="7" t="s">
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9">
-        <v>8</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" customHeight="1" spans="1:8">
-      <c r="A8" s="7" t="s">
+      <c r="E7" s="10">
+        <v>8</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9">
-        <v>8</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
+      <c r="E8" s="10">
+        <v>8</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" hidden="1" customHeight="1" spans="1:8">
-      <c r="A9" s="7" t="s">
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9">
-        <v>8</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" hidden="1" customHeight="1" spans="1:8">
-      <c r="A10" s="7" t="s">
+      <c r="E9" s="10">
+        <v>8</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9">
-        <v>8</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" hidden="1" customHeight="1" spans="1:8">
-      <c r="A11" s="7" t="s">
+      <c r="E10" s="10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="9">
-        <v>8</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9" t="s">
+      <c r="E11" s="10">
+        <v>8</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" hidden="1" customHeight="1" spans="1:8">
-      <c r="A12" s="7" t="s">
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="9">
-        <v>5</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10" t="s">
+      <c r="E12" s="10">
+        <v>5</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" hidden="1" customHeight="1" spans="1:8">
-      <c r="A13" s="7" t="s">
+    <row r="13" customHeight="1" spans="1:7">
+      <c r="A13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="9">
-        <v>5</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" hidden="1" customHeight="1" spans="1:8">
-      <c r="A14" s="7" t="s">
+      <c r="E13" s="10">
+        <v>5</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="9">
-        <v>5</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" hidden="1" customHeight="1" spans="1:8">
-      <c r="A15" s="7" t="s">
+      <c r="E14" s="10">
+        <v>5</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
+      <c r="A15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="11">
-        <v>5</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" hidden="1" customHeight="1" spans="1:8">
-      <c r="A16" s="7" t="s">
+      <c r="E15" s="10">
+        <v>5</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="11">
-        <v>5</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11" t="s">
+      <c r="E16" s="10">
+        <v>5</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" hidden="1" customHeight="1" spans="1:8">
-      <c r="A17" s="7" t="s">
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="11">
-        <v>5</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" hidden="1" customHeight="1" spans="1:8">
-      <c r="A18" s="7" t="s">
+      <c r="E17" s="10">
+        <v>5</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
+      <c r="A18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="11">
-        <v>5</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" hidden="1" customHeight="1" spans="1:8">
-      <c r="A19" s="7" t="s">
+      <c r="E18" s="10">
+        <v>5</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
+      <c r="A19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="9">
-        <v>5</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" hidden="1" customHeight="1" spans="1:8">
-      <c r="A20" s="7" t="s">
+      <c r="E19" s="10">
+        <v>5</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="9">
-        <v>5</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" hidden="1" customHeight="1" spans="1:8">
-      <c r="A21" s="7" t="s">
+      <c r="E20" s="10">
+        <v>5</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
+      <c r="A21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="11">
-        <v>5</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" hidden="1" customHeight="1" spans="1:8">
-      <c r="A22" s="7" t="s">
+      <c r="E21" s="10">
+        <v>5</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
+      <c r="A22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="9">
-        <v>5</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="14" t="s">
+      <c r="E22" s="10">
+        <v>5</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" hidden="1" customHeight="1" spans="1:8">
-      <c r="A23" s="7" t="s">
+    <row r="23" customHeight="1" spans="1:7">
+      <c r="A23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="9">
-        <v>5</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" hidden="1" customHeight="1" spans="1:8">
-      <c r="A24" s="7" t="s">
+      <c r="E23" s="10">
+        <v>5</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:7">
+      <c r="A24" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="9">
-        <v>5</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" hidden="1" customHeight="1" spans="1:8">
-      <c r="A25" s="7" t="s">
+      <c r="E24" s="10">
+        <v>5</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
+      <c r="A25" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -3020,13 +3010,13 @@
       <c r="E25" s="11">
         <v>6</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" hidden="1" customHeight="1" spans="1:8">
-      <c r="A26" s="7" t="s">
+      <c r="F25" s="11"/>
+      <c r="G25" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
+      <c r="A26" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -3041,13 +3031,13 @@
       <c r="E26" s="11">
         <v>6</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" hidden="1" customHeight="1" spans="1:8">
-      <c r="A27" s="7" t="s">
+      <c r="F26" s="11"/>
+      <c r="G26" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
+      <c r="A27" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -3062,13 +3052,13 @@
       <c r="E27" s="11">
         <v>6</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11" t="s">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" hidden="1" customHeight="1" spans="1:8">
-      <c r="A28" s="7" t="s">
+    <row r="28" customHeight="1" spans="1:7">
+      <c r="A28" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -3083,13 +3073,13 @@
       <c r="E28" s="11">
         <v>6</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" hidden="1" customHeight="1" spans="1:8">
-      <c r="A29" s="7" t="s">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:7">
+      <c r="A29" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -3104,13 +3094,13 @@
       <c r="E29" s="11">
         <v>6</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" hidden="1" customHeight="1" spans="1:8">
-      <c r="A30" s="7" t="s">
+      <c r="F29" s="11"/>
+      <c r="G29" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:7">
+      <c r="A30" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -3125,603 +3115,603 @@
       <c r="E30" s="11">
         <v>6</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="11" t="s">
+      <c r="F30" s="17"/>
+      <c r="G30" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" hidden="1" customHeight="1" spans="1:8">
-      <c r="A31" s="7" t="s">
+    <row r="31" customHeight="1" spans="1:7">
+      <c r="A31" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="17">
-        <v>5</v>
-      </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:8">
-      <c r="A32" s="7" t="s">
+      <c r="E31" s="12">
+        <v>5</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:7">
+      <c r="A32" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="17">
-        <v>5</v>
-      </c>
-      <c r="G32" s="19" t="s">
+      <c r="E32" s="12">
+        <v>5</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" hidden="1" customHeight="1" spans="1:8">
-      <c r="A33" s="7" t="s">
+      <c r="G32" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:7">
+      <c r="A33" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="9">
-        <v>8</v>
-      </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" hidden="1" customHeight="1" spans="1:8">
-      <c r="A34" s="7" t="s">
+      <c r="E33" s="10">
+        <v>8</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:7">
+      <c r="A34" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="9">
-        <v>8</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" hidden="1" customHeight="1" spans="1:8">
-      <c r="A35" s="7" t="s">
+      <c r="E34" s="10">
+        <v>8</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:7">
+      <c r="A35" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E35" s="9">
-        <v>8</v>
-      </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" hidden="1" customHeight="1" spans="1:8">
-      <c r="A36" s="7" t="s">
+      <c r="E35" s="10">
+        <v>8</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:7">
+      <c r="A36" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="9">
-        <v>8</v>
-      </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9" t="s">
+      <c r="E36" s="10">
+        <v>8</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" hidden="1" customHeight="1" spans="1:8">
-      <c r="A37" s="7" t="s">
+    <row r="37" customHeight="1" spans="1:7">
+      <c r="A37" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="9">
-        <v>8</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" hidden="1" customHeight="1" spans="1:8">
-      <c r="A38" s="7" t="s">
+      <c r="E37" s="10">
+        <v>8</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
+      <c r="A38" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="9">
-        <v>8</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" hidden="1" customHeight="1" spans="1:8">
-      <c r="A39" s="7" t="s">
+      <c r="E38" s="10">
+        <v>8</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:7">
+      <c r="A39" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="9">
-        <v>8</v>
-      </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" hidden="1" customHeight="1" spans="1:8">
-      <c r="A40" s="7" t="s">
+      <c r="E39" s="10">
+        <v>8</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:7">
+      <c r="A40" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="9">
-        <v>8</v>
-      </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9" t="s">
+      <c r="E40" s="10">
+        <v>8</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" hidden="1" customHeight="1" spans="1:8">
-      <c r="A41" s="7" t="s">
+    <row r="41" customHeight="1" spans="1:7">
+      <c r="A41" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="9">
-        <v>8</v>
-      </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9" t="s">
+      <c r="E41" s="10">
+        <v>8</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" hidden="1" customHeight="1" spans="1:8">
-      <c r="A42" s="7" t="s">
+    <row r="42" customHeight="1" spans="1:7">
+      <c r="A42" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="9">
-        <v>5</v>
-      </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9" t="s">
+      <c r="E42" s="10">
+        <v>5</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" hidden="1" customHeight="1" spans="1:8">
-      <c r="A43" s="7" t="s">
+    <row r="43" customHeight="1" spans="1:7">
+      <c r="A43" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="9">
-        <v>5</v>
-      </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" hidden="1" customHeight="1" spans="1:8">
-      <c r="A44" s="7" t="s">
+      <c r="E43" s="10">
+        <v>5</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:7">
+      <c r="A44" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="9">
-        <v>8</v>
-      </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" hidden="1" customHeight="1" spans="1:8">
-      <c r="A45" s="7" t="s">
+      <c r="E44" s="10">
+        <v>8</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:7">
+      <c r="A45" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="9">
-        <v>5</v>
-      </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10" t="s">
+      <c r="E45" s="10">
+        <v>5</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" hidden="1" customHeight="1" spans="1:8">
-      <c r="A46" s="7" t="s">
+    <row r="46" customHeight="1" spans="1:7">
+      <c r="A46" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="9">
-        <v>8</v>
-      </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" hidden="1" customHeight="1" spans="1:8">
-      <c r="A47" s="7" t="s">
+      <c r="E46" s="10">
+        <v>8</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:7">
+      <c r="A47" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="9">
-        <v>5</v>
-      </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" hidden="1" customHeight="1" spans="1:8">
-      <c r="A48" s="7" t="s">
+      <c r="E47" s="10">
+        <v>5</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:7">
+      <c r="A48" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="9">
-        <v>5</v>
-      </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="10" t="s">
+      <c r="E48" s="10">
+        <v>5</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" hidden="1" customHeight="1" spans="1:8">
-      <c r="A49" s="7" t="s">
+    <row r="49" customHeight="1" spans="1:7">
+      <c r="A49" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E49" s="9">
-        <v>5</v>
-      </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" hidden="1" customHeight="1" spans="1:8">
-      <c r="A50" s="7" t="s">
+      <c r="E49" s="10">
+        <v>5</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:7">
+      <c r="A50" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E50" s="9">
-        <v>5</v>
-      </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" hidden="1" customHeight="1" spans="1:8">
-      <c r="A51" s="7" t="s">
+      <c r="E50" s="10">
+        <v>5</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:7">
+      <c r="A51" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="9">
-        <v>5</v>
-      </c>
-      <c r="G51" s="9"/>
-      <c r="H51" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" hidden="1" customHeight="1" spans="1:8">
-      <c r="A52" s="7" t="s">
+      <c r="E51" s="10">
+        <v>5</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:7">
+      <c r="A52" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="9">
-        <v>5</v>
-      </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" hidden="1" customHeight="1" spans="1:8">
-      <c r="A53" s="7" t="s">
+      <c r="E52" s="10">
+        <v>5</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:7">
+      <c r="A53" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="9">
-        <v>5</v>
-      </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="10" t="s">
+      <c r="E53" s="10">
+        <v>5</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" hidden="1" customHeight="1" spans="1:8">
-      <c r="A54" s="7" t="s">
+    <row r="54" customHeight="1" spans="1:7">
+      <c r="A54" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="9">
-        <v>5</v>
-      </c>
-      <c r="G54" s="9"/>
-      <c r="H54" s="10" t="s">
+      <c r="E54" s="10">
+        <v>5</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" hidden="1" customHeight="1" spans="1:8">
-      <c r="A55" s="7" t="s">
+    <row r="55" customHeight="1" spans="1:7">
+      <c r="A55" s="8" t="s">
         <v>120</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E55" s="9">
-        <v>5</v>
-      </c>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9" t="s">
+      <c r="E55" s="10">
+        <v>5</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="56" hidden="1" customHeight="1" spans="1:8">
-      <c r="A56" s="7" t="s">
+    <row r="56" customHeight="1" spans="1:7">
+      <c r="A56" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E56" s="11">
         <v>5</v>
       </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" hidden="1" customHeight="1" spans="1:8">
-      <c r="A57" s="7" t="s">
+      <c r="F56" s="11"/>
+      <c r="G56" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:7">
+      <c r="A57" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E57" s="9">
-        <v>5</v>
-      </c>
-      <c r="G57" s="9"/>
-      <c r="H57" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" hidden="1" customHeight="1" spans="1:8">
-      <c r="A58" s="7" t="s">
+      <c r="E57" s="10">
+        <v>5</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:7">
+      <c r="A58" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E58" s="11">
         <v>5</v>
       </c>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" hidden="1" customHeight="1" spans="1:8">
-      <c r="A59" s="7" t="s">
+      <c r="F58" s="11"/>
+      <c r="G58" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:7">
+      <c r="A59" s="8" t="s">
         <v>128</v>
       </c>
       <c r="B59" s="11" t="s">
@@ -3736,13 +3726,13 @@
       <c r="E59" s="11">
         <v>5</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" hidden="1" customHeight="1" spans="1:8">
-      <c r="A60" s="7" t="s">
+      <c r="F59" s="11"/>
+      <c r="G59" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:7">
+      <c r="A60" s="8" t="s">
         <v>130</v>
       </c>
       <c r="B60" s="11" t="s">
@@ -3757,13 +3747,13 @@
       <c r="E60" s="11">
         <v>5</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" hidden="1" customHeight="1" spans="1:8">
-      <c r="A61" s="7" t="s">
+      <c r="F60" s="11"/>
+      <c r="G60" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:7">
+      <c r="A61" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -3778,1130 +3768,1130 @@
       <c r="E61" s="11">
         <v>5</v>
       </c>
-      <c r="G61" s="22"/>
-      <c r="H61" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" hidden="1" customHeight="1" spans="1:8">
-      <c r="A62" s="7" t="s">
+      <c r="F61" s="17"/>
+      <c r="G61" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:7">
+      <c r="A62" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D62" s="8" t="s">
+      <c r="C62" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="12">
         <v>3</v>
       </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="8" t="s">
+      <c r="F62" s="14"/>
+      <c r="G62" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:8">
-      <c r="A63" s="7" t="s">
+    <row r="63" customHeight="1" spans="1:7">
+      <c r="A63" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D63" s="8" t="s">
+      <c r="C63" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E63" s="17">
-        <v>5</v>
-      </c>
-      <c r="G63" s="19" t="s">
+      <c r="E63" s="12">
+        <v>5</v>
+      </c>
+      <c r="F63" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" hidden="1" customHeight="1" spans="1:8">
-      <c r="A64" s="7" t="s">
+      <c r="G63" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:7">
+      <c r="A64" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D64" s="17" t="s">
+      <c r="C64" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E64" s="17">
-        <v>5</v>
-      </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="17" t="s">
+      <c r="E64" s="12">
+        <v>5</v>
+      </c>
+      <c r="F64" s="14"/>
+      <c r="G64" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" hidden="1" customHeight="1" spans="1:8">
-      <c r="A65" s="7" t="s">
+    <row r="65" customHeight="1" spans="1:7">
+      <c r="A65" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D65" s="17" t="s">
+      <c r="C65" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="17">
-        <v>5</v>
-      </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" hidden="1" customHeight="1" spans="1:8">
-      <c r="A66" s="7" t="s">
+      <c r="E65" s="12">
+        <v>5</v>
+      </c>
+      <c r="F65" s="14"/>
+      <c r="G65" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:7">
+      <c r="A66" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C66" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D66" s="9" t="s">
+      <c r="C66" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="9">
-        <v>8</v>
-      </c>
-      <c r="G66" s="20"/>
-      <c r="H66" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" hidden="1" customHeight="1" spans="1:8">
-      <c r="A67" s="7" t="s">
+      <c r="E66" s="10">
+        <v>8</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="G66" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:7">
+      <c r="A67" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C67" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D67" s="9" t="s">
+      <c r="C67" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E67" s="9">
-        <v>8</v>
-      </c>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" hidden="1" customHeight="1" spans="1:8">
-      <c r="A68" s="7" t="s">
+      <c r="E67" s="10">
+        <v>8</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:7">
+      <c r="A68" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D68" s="9" t="s">
+      <c r="C68" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E68" s="9">
-        <v>8</v>
-      </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9" t="s">
+      <c r="E68" s="10">
+        <v>8</v>
+      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="69" hidden="1" customHeight="1" spans="1:8">
-      <c r="A69" s="7" t="s">
+    <row r="69" customHeight="1" spans="1:7">
+      <c r="A69" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D69" s="9" t="s">
+      <c r="C69" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E69" s="9">
-        <v>8</v>
-      </c>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9" t="s">
+      <c r="E69" s="10">
+        <v>8</v>
+      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="70" hidden="1" customHeight="1" spans="1:8">
-      <c r="A70" s="7" t="s">
+    <row r="70" customHeight="1" spans="1:7">
+      <c r="A70" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D70" s="9" t="s">
+      <c r="C70" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E70" s="9">
-        <v>8</v>
-      </c>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" hidden="1" customHeight="1" spans="1:8">
-      <c r="A71" s="7" t="s">
+      <c r="E70" s="10">
+        <v>8</v>
+      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:7">
+      <c r="A71" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C71" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D71" s="9" t="s">
+      <c r="C71" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E71" s="9">
-        <v>8</v>
-      </c>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9" t="s">
+      <c r="E71" s="10">
+        <v>8</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72" hidden="1" customHeight="1" spans="1:8">
-      <c r="A72" s="7" t="s">
+    <row r="72" customHeight="1" spans="1:7">
+      <c r="A72" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D72" s="9" t="s">
+      <c r="C72" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="10">
         <v>7</v>
       </c>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" hidden="1" customHeight="1" spans="1:8">
-      <c r="A73" s="7" t="s">
+      <c r="F72" s="10"/>
+      <c r="G72" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:7">
+      <c r="A73" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D73" s="9" t="s">
+      <c r="C73" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E73" s="9">
-        <v>8</v>
-      </c>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" hidden="1" customHeight="1" spans="1:8">
-      <c r="A74" s="7" t="s">
+      <c r="E73" s="10">
+        <v>8</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:7">
+      <c r="A74" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D74" s="9" t="s">
+      <c r="C74" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D74" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="9">
-        <v>8</v>
-      </c>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" hidden="1" customHeight="1" spans="1:8">
-      <c r="A75" s="7" t="s">
+      <c r="E74" s="10">
+        <v>8</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:7">
+      <c r="A75" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C75" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D75" s="9" t="s">
+      <c r="C75" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E75" s="9">
-        <v>8</v>
-      </c>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9" t="s">
+      <c r="E75" s="10">
+        <v>8</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="76" hidden="1" customHeight="1" spans="1:8">
-      <c r="A76" s="7" t="s">
+    <row r="76" customHeight="1" spans="1:7">
+      <c r="A76" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D76" s="9" t="s">
+      <c r="C76" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E76" s="9">
-        <v>8</v>
-      </c>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9" t="s">
+      <c r="E76" s="10">
+        <v>8</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="77" hidden="1" customHeight="1" spans="1:8">
-      <c r="A77" s="7" t="s">
+    <row r="77" customHeight="1" spans="1:7">
+      <c r="A77" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="10" t="s">
         <v>136</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E77" s="9">
-        <v>5</v>
-      </c>
-      <c r="G77" s="9"/>
-      <c r="H77" s="11" t="s">
+      <c r="E77" s="10">
+        <v>5</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="78" hidden="1" customHeight="1" spans="1:8">
-      <c r="A78" s="7" t="s">
+    <row r="78" customHeight="1" spans="1:7">
+      <c r="A78" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D78" s="9" t="s">
+      <c r="C78" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D78" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E78" s="9">
-        <v>8</v>
-      </c>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" hidden="1" customHeight="1" spans="1:8">
-      <c r="A79" s="7" t="s">
+      <c r="E78" s="10">
+        <v>8</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:7">
+      <c r="A79" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D79" s="9" t="s">
+      <c r="C79" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E79" s="9">
-        <v>8</v>
-      </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9" t="s">
+      <c r="E79" s="10">
+        <v>8</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="80" hidden="1" customHeight="1" spans="1:8">
-      <c r="A80" s="7" t="s">
+    <row r="80" customHeight="1" spans="1:7">
+      <c r="A80" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" s="9" t="s">
+      <c r="C80" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E80" s="9">
-        <v>8</v>
-      </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9" t="s">
+      <c r="E80" s="10">
+        <v>8</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="81" hidden="1" customHeight="1" spans="1:8">
-      <c r="A81" s="7" t="s">
+    <row r="81" customHeight="1" spans="1:7">
+      <c r="A81" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D81" s="9" t="s">
+      <c r="C81" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E81" s="9">
-        <v>8</v>
-      </c>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9" t="s">
+      <c r="E81" s="10">
+        <v>8</v>
+      </c>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" hidden="1" customHeight="1" spans="1:8">
-      <c r="A82" s="7" t="s">
+    <row r="82" customHeight="1" spans="1:7">
+      <c r="A82" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C82" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D82" s="9" t="s">
+      <c r="C82" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E82" s="9">
-        <v>8</v>
-      </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9" t="s">
+      <c r="E82" s="10">
+        <v>8</v>
+      </c>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" hidden="1" customHeight="1" spans="1:8">
-      <c r="A83" s="7" t="s">
+    <row r="83" customHeight="1" spans="1:7">
+      <c r="A83" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D83" s="9" t="s">
+      <c r="C83" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E83" s="9">
-        <v>8</v>
-      </c>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9" t="s">
+      <c r="E83" s="10">
+        <v>8</v>
+      </c>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="84" hidden="1" customHeight="1" spans="1:8">
-      <c r="A84" s="7" t="s">
+    <row r="84" customHeight="1" spans="1:7">
+      <c r="A84" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D84" s="9" t="s">
+      <c r="C84" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D84" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E84" s="9">
-        <v>8</v>
-      </c>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9" t="s">
+      <c r="E84" s="10">
+        <v>8</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="85" hidden="1" customHeight="1" spans="1:8">
-      <c r="A85" s="7" t="s">
+    <row r="85" customHeight="1" spans="1:7">
+      <c r="A85" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D85" s="9" t="s">
+      <c r="C85" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D85" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E85" s="9">
-        <v>8</v>
-      </c>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9" t="s">
+      <c r="E85" s="10">
+        <v>8</v>
+      </c>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="86" hidden="1" customHeight="1" spans="1:8">
-      <c r="A86" s="7" t="s">
+    <row r="86" customHeight="1" spans="1:7">
+      <c r="A86" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D86" s="9" t="s">
+      <c r="C86" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E86" s="9">
-        <v>8</v>
-      </c>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9" t="s">
+      <c r="E86" s="10">
+        <v>8</v>
+      </c>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="87" hidden="1" customHeight="1" spans="1:8">
-      <c r="A87" s="7" t="s">
+    <row r="87" customHeight="1" spans="1:7">
+      <c r="A87" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C87" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D87" s="9" t="s">
+      <c r="C87" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D87" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E87" s="9">
-        <v>8</v>
-      </c>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9" t="s">
+      <c r="E87" s="10">
+        <v>8</v>
+      </c>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="88" hidden="1" customHeight="1" spans="1:8">
-      <c r="A88" s="7" t="s">
+    <row r="88" customHeight="1" spans="1:7">
+      <c r="A88" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D88" s="9" t="s">
+      <c r="C88" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D88" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E88" s="9">
-        <v>8</v>
-      </c>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" hidden="1" customHeight="1" spans="1:8">
-      <c r="A89" s="7" t="s">
+      <c r="E88" s="10">
+        <v>8</v>
+      </c>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:7">
+      <c r="A89" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D89" s="9" t="s">
+      <c r="C89" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D89" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E89" s="9">
-        <v>8</v>
-      </c>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9" t="s">
+      <c r="E89" s="10">
+        <v>8</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="90" hidden="1" customHeight="1" spans="1:8">
-      <c r="A90" s="7" t="s">
+    <row r="90" customHeight="1" spans="1:7">
+      <c r="A90" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C90" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D90" s="9" t="s">
+      <c r="C90" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E90" s="9">
-        <v>8</v>
-      </c>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9" t="s">
+      <c r="E90" s="10">
+        <v>8</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="91" hidden="1" customHeight="1" spans="1:8">
-      <c r="A91" s="7" t="s">
+    <row r="91" customHeight="1" spans="1:7">
+      <c r="A91" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C91" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D91" s="9" t="s">
+      <c r="C91" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E91" s="9">
-        <v>8</v>
-      </c>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" hidden="1" customHeight="1" spans="1:8">
-      <c r="A92" s="7" t="s">
+      <c r="E91" s="10">
+        <v>8</v>
+      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:7">
+      <c r="A92" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D92" s="9" t="s">
+      <c r="C92" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E92" s="9">
-        <v>8</v>
-      </c>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" hidden="1" customHeight="1" spans="1:8">
-      <c r="A93" s="7" t="s">
+      <c r="E92" s="10">
+        <v>8</v>
+      </c>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:7">
+      <c r="A93" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D93" s="9" t="s">
+      <c r="C93" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D93" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E93" s="9">
-        <v>5</v>
-      </c>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" hidden="1" customHeight="1" spans="1:8">
-      <c r="A94" s="7" t="s">
+      <c r="E93" s="10">
+        <v>5</v>
+      </c>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:7">
+      <c r="A94" s="8" t="s">
         <v>200</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D94" s="9" t="s">
+      <c r="C94" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E94" s="9">
-        <v>5</v>
-      </c>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" hidden="1" customHeight="1" spans="1:8">
-      <c r="A95" s="7" t="s">
+      <c r="E94" s="10">
+        <v>5</v>
+      </c>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:7">
+      <c r="A95" s="8" t="s">
         <v>202</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C95" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D95" s="9" t="s">
+      <c r="C95" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D95" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E95" s="9">
-        <v>5</v>
-      </c>
-      <c r="G95" s="9"/>
-      <c r="H95" s="10" t="s">
+      <c r="E95" s="10">
+        <v>5</v>
+      </c>
+      <c r="F95" s="10"/>
+      <c r="G95" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="96" hidden="1" customHeight="1" spans="1:8">
-      <c r="A96" s="7" t="s">
+    <row r="96" customHeight="1" spans="1:7">
+      <c r="A96" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C96" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D96" s="9" t="s">
+      <c r="C96" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E96" s="9">
-        <v>5</v>
-      </c>
-      <c r="G96" s="9"/>
-      <c r="H96" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" hidden="1" customHeight="1" spans="1:8">
-      <c r="A97" s="7" t="s">
+      <c r="E96" s="10">
+        <v>5</v>
+      </c>
+      <c r="F96" s="10"/>
+      <c r="G96" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:7">
+      <c r="A97" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D97" s="23" t="s">
+      <c r="C97" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E97" s="9">
-        <v>5</v>
-      </c>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" hidden="1" customHeight="1" spans="1:8">
-      <c r="A98" s="7" t="s">
+      <c r="E97" s="10">
+        <v>5</v>
+      </c>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:7">
+      <c r="A98" s="8" t="s">
         <v>208</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C98" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D98" s="9" t="s">
+      <c r="C98" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D98" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E98" s="9">
-        <v>5</v>
-      </c>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" hidden="1" customHeight="1" spans="1:8">
-      <c r="A99" s="7" t="s">
+      <c r="E98" s="10">
+        <v>5</v>
+      </c>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:7">
+      <c r="A99" s="8" t="s">
         <v>210</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C99" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D99" s="9" t="s">
+      <c r="C99" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D99" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E99" s="9">
-        <v>5</v>
-      </c>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9" t="s">
+      <c r="E99" s="10">
+        <v>5</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" hidden="1" customHeight="1" spans="1:8">
-      <c r="A100" s="7" t="s">
+    <row r="100" customHeight="1" spans="1:7">
+      <c r="A100" s="8" t="s">
         <v>212</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C100" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D100" s="9" t="s">
+      <c r="C100" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D100" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E100" s="9">
-        <v>5</v>
-      </c>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" hidden="1" customHeight="1" spans="1:8">
-      <c r="A101" s="7" t="s">
+      <c r="E100" s="10">
+        <v>5</v>
+      </c>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:7">
+      <c r="A101" s="8" t="s">
         <v>214</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C101" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D101" s="9" t="s">
+      <c r="C101" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E101" s="9">
-        <v>5</v>
-      </c>
-      <c r="G101" s="9"/>
-      <c r="H101" s="10" t="s">
+      <c r="E101" s="10">
+        <v>5</v>
+      </c>
+      <c r="F101" s="10"/>
+      <c r="G101" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="102" hidden="1" customHeight="1" spans="1:8">
-      <c r="A102" s="7" t="s">
+    <row r="102" customHeight="1" spans="1:7">
+      <c r="A102" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C102" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D102" s="9" t="s">
+      <c r="C102" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D102" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E102" s="9">
-        <v>5</v>
-      </c>
-      <c r="G102" s="9"/>
-      <c r="H102" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" hidden="1" customHeight="1" spans="1:8">
-      <c r="A103" s="7" t="s">
+      <c r="E102" s="10">
+        <v>5</v>
+      </c>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:7">
+      <c r="A103" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D103" s="9" t="s">
+      <c r="C103" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D103" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E103" s="9">
-        <v>5</v>
-      </c>
-      <c r="G103" s="9"/>
-      <c r="H103" s="13" t="s">
+      <c r="E103" s="10">
+        <v>5</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="104" hidden="1" customHeight="1" spans="1:8">
-      <c r="A104" s="7" t="s">
+    <row r="104" customHeight="1" spans="1:7">
+      <c r="A104" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C104" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D104" s="9" t="s">
+      <c r="C104" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D104" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E104" s="9">
-        <v>5</v>
-      </c>
-      <c r="G104" s="9"/>
-      <c r="H104" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" hidden="1" customHeight="1" spans="1:8">
-      <c r="A105" s="7" t="s">
+      <c r="E104" s="10">
+        <v>5</v>
+      </c>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:7">
+      <c r="A105" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C105" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D105" s="9" t="s">
+      <c r="C105" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E105" s="9">
-        <v>5</v>
-      </c>
-      <c r="G105" s="9"/>
-      <c r="H105" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" hidden="1" customHeight="1" spans="1:8">
-      <c r="A106" s="7" t="s">
+      <c r="E105" s="10">
+        <v>5</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:7">
+      <c r="A106" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C106" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D106" s="9" t="s">
+      <c r="C106" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D106" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E106" s="9">
-        <v>8</v>
-      </c>
-      <c r="G106" s="9"/>
-      <c r="H106" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" hidden="1" customHeight="1" spans="1:8">
-      <c r="A107" s="7" t="s">
+      <c r="E106" s="10">
+        <v>8</v>
+      </c>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:7">
+      <c r="A107" s="8" t="s">
         <v>226</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C107" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D107" s="9" t="s">
+      <c r="C107" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D107" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E107" s="9">
-        <v>5</v>
-      </c>
-      <c r="G107" s="9"/>
-      <c r="H107" s="10" t="s">
+      <c r="E107" s="10">
+        <v>5</v>
+      </c>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="108" hidden="1" customHeight="1" spans="1:8">
-      <c r="A108" s="7" t="s">
+    <row r="108" customHeight="1" spans="1:7">
+      <c r="A108" s="8" t="s">
         <v>228</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="C108" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D108" s="9" t="s">
+      <c r="C108" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D108" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E108" s="9">
-        <v>5</v>
-      </c>
-      <c r="G108" s="9"/>
-      <c r="H108" s="10" t="s">
+      <c r="E108" s="10">
+        <v>5</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="109" hidden="1" customHeight="1" spans="1:8">
-      <c r="A109" s="7" t="s">
+    <row r="109" customHeight="1" spans="1:7">
+      <c r="A109" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C109" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D109" s="9" t="s">
+      <c r="C109" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E109" s="9">
-        <v>5</v>
-      </c>
-      <c r="G109" s="9"/>
-      <c r="H109" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" hidden="1" customHeight="1" spans="1:8">
-      <c r="A110" s="7" t="s">
+      <c r="E109" s="10">
+        <v>5</v>
+      </c>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:7">
+      <c r="A110" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C110" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D110" s="9" t="s">
+      <c r="C110" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D110" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E110" s="9">
-        <v>5</v>
-      </c>
-      <c r="G110" s="9"/>
-      <c r="H110" s="13" t="s">
+      <c r="E110" s="10">
+        <v>5</v>
+      </c>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="111" hidden="1" customHeight="1" spans="1:8">
-      <c r="A111" s="7" t="s">
+    <row r="111" customHeight="1" spans="1:7">
+      <c r="A111" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C111" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D111" s="9" t="s">
+      <c r="C111" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D111" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E111" s="9">
-        <v>5</v>
-      </c>
-      <c r="G111" s="9"/>
-      <c r="H111" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" hidden="1" customHeight="1" spans="1:8">
-      <c r="A112" s="7" t="s">
+      <c r="E111" s="10">
+        <v>5</v>
+      </c>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:7">
+      <c r="A112" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C112" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D112" s="9" t="s">
+      <c r="C112" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D112" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E112" s="9">
-        <v>5</v>
-      </c>
-      <c r="G112" s="9"/>
-      <c r="H112" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" hidden="1" customHeight="1" spans="1:8">
-      <c r="A113" s="7" t="s">
+      <c r="E112" s="10">
+        <v>5</v>
+      </c>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:7">
+      <c r="A113" s="8" t="s">
         <v>238</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C113" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D113" s="9" t="s">
+      <c r="C113" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D113" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E113" s="9">
-        <v>5</v>
-      </c>
-      <c r="G113" s="9"/>
-      <c r="H113" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" customHeight="1" spans="1:8">
-      <c r="A114" s="7" t="s">
+      <c r="E113" s="10">
+        <v>5</v>
+      </c>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:7">
+      <c r="A114" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B114" s="24" t="s">
+      <c r="B114" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C114" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D114" s="11" t="s">
+      <c r="C114" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D114" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E114" s="9">
-        <v>5</v>
-      </c>
-      <c r="G114" s="9" t="s">
+      <c r="E114" s="10">
+        <v>5</v>
+      </c>
+      <c r="F114" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="H114" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" hidden="1" customHeight="1" spans="1:8">
-      <c r="A115" s="7" t="s">
+      <c r="G114" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:7">
+      <c r="A115" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B115" s="11" t="s">
@@ -4916,13 +4906,13 @@
       <c r="E115" s="11">
         <v>5</v>
       </c>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" hidden="1" customHeight="1" spans="1:8">
-      <c r="A116" s="7" t="s">
+      <c r="F115" s="11"/>
+      <c r="G115" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:7">
+      <c r="A116" s="8" t="s">
         <v>245</v>
       </c>
       <c r="B116" s="11" t="s">
@@ -4937,989 +4927,989 @@
       <c r="E116" s="11">
         <v>5</v>
       </c>
-      <c r="G116" s="22"/>
-      <c r="H116" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" hidden="1" customHeight="1" spans="1:8">
-      <c r="A117" s="7" t="s">
+      <c r="F116" s="17"/>
+      <c r="G116" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:7">
+      <c r="A117" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B117" s="25" t="s">
+      <c r="B117" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D117" s="8" t="s">
+      <c r="C117" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="E117" s="17">
+      <c r="E117" s="12">
         <v>3</v>
       </c>
-      <c r="G117" s="19"/>
-      <c r="H117" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" customHeight="1" spans="1:8">
-      <c r="A118" s="7" t="s">
+      <c r="F117" s="14"/>
+      <c r="G117" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:7">
+      <c r="A118" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D118" s="8" t="s">
+      <c r="C118" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D118" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="E118" s="17">
-        <v>5</v>
-      </c>
-      <c r="G118" s="19" t="s">
+      <c r="E118" s="12">
+        <v>5</v>
+      </c>
+      <c r="F118" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H118" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" hidden="1" customHeight="1" spans="1:8">
-      <c r="A119" s="7" t="s">
+      <c r="G118" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:7">
+      <c r="A119" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C119" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D119" s="9" t="s">
+      <c r="C119" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D119" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E119" s="9">
-        <v>8</v>
-      </c>
-      <c r="G119" s="20"/>
-      <c r="H119" s="9" t="s">
+      <c r="E119" s="10">
+        <v>8</v>
+      </c>
+      <c r="F119" s="15"/>
+      <c r="G119" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="120" hidden="1" customHeight="1" spans="1:8">
-      <c r="A120" s="7" t="s">
+    <row r="120" customHeight="1" spans="1:7">
+      <c r="A120" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C120" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D120" s="9" t="s">
+      <c r="C120" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D120" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E120" s="9">
-        <v>8</v>
-      </c>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" hidden="1" customHeight="1" spans="1:8">
-      <c r="A121" s="7" t="s">
+      <c r="E120" s="10">
+        <v>8</v>
+      </c>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:7">
+      <c r="A121" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C121" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D121" s="9" t="s">
+      <c r="C121" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D121" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E121" s="9">
-        <v>8</v>
-      </c>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" hidden="1" customHeight="1" spans="1:8">
-      <c r="A122" s="7" t="s">
+      <c r="E121" s="10">
+        <v>8</v>
+      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:7">
+      <c r="A122" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C122" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D122" s="9" t="s">
+      <c r="C122" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D122" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E122" s="9">
-        <v>8</v>
-      </c>
-      <c r="G122" s="9"/>
-      <c r="H122" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" hidden="1" customHeight="1" spans="1:8">
-      <c r="A123" s="7" t="s">
+      <c r="E122" s="10">
+        <v>8</v>
+      </c>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:7">
+      <c r="A123" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C123" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D123" s="9" t="s">
+      <c r="C123" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D123" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E123" s="9">
-        <v>8</v>
-      </c>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" hidden="1" customHeight="1" spans="1:8">
-      <c r="A124" s="7" t="s">
+      <c r="E123" s="10">
+        <v>8</v>
+      </c>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:7">
+      <c r="A124" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C124" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D124" s="9" t="s">
+      <c r="C124" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D124" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E124" s="9">
-        <v>8</v>
-      </c>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" hidden="1" customHeight="1" spans="1:8">
-      <c r="A125" s="7" t="s">
+      <c r="E124" s="10">
+        <v>8</v>
+      </c>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:7">
+      <c r="A125" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C125" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D125" s="9" t="s">
+      <c r="C125" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D125" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E125" s="9">
-        <v>8</v>
-      </c>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9" t="s">
+      <c r="E125" s="10">
+        <v>8</v>
+      </c>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="126" hidden="1" customHeight="1" spans="1:8">
-      <c r="A126" s="7" t="s">
+    <row r="126" customHeight="1" spans="1:7">
+      <c r="A126" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C126" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D126" s="9" t="s">
+      <c r="C126" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D126" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E126" s="9">
-        <v>8</v>
-      </c>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" hidden="1" customHeight="1" spans="1:8">
-      <c r="A127" s="7" t="s">
+      <c r="E126" s="10">
+        <v>8</v>
+      </c>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:7">
+      <c r="A127" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C127" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D127" s="9" t="s">
+      <c r="C127" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D127" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E127" s="9">
-        <v>8</v>
-      </c>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" hidden="1" customHeight="1" spans="1:8">
-      <c r="A128" s="7" t="s">
+      <c r="E127" s="10">
+        <v>8</v>
+      </c>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:7">
+      <c r="A128" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C128" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D128" s="9" t="s">
+      <c r="C128" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D128" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E128" s="9">
-        <v>8</v>
-      </c>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9" t="s">
+      <c r="E128" s="10">
+        <v>8</v>
+      </c>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="129" hidden="1" customHeight="1" spans="1:8">
-      <c r="A129" s="7" t="s">
+    <row r="129" customHeight="1" spans="1:7">
+      <c r="A129" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C129" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D129" s="9" t="s">
+      <c r="C129" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D129" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E129" s="9">
-        <v>8</v>
-      </c>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" hidden="1" customHeight="1" spans="1:8">
-      <c r="A130" s="7" t="s">
+      <c r="E129" s="10">
+        <v>8</v>
+      </c>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:7">
+      <c r="A130" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C130" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D130" s="9" t="s">
+      <c r="C130" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D130" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E130" s="9">
-        <v>8</v>
-      </c>
-      <c r="G130" s="9"/>
-      <c r="H130" s="10" t="s">
+      <c r="E130" s="10">
+        <v>8</v>
+      </c>
+      <c r="F130" s="10"/>
+      <c r="G130" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="131" hidden="1" customHeight="1" spans="1:8">
-      <c r="A131" s="7" t="s">
+    <row r="131" customHeight="1" spans="1:7">
+      <c r="A131" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C131" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D131" s="9" t="s">
+      <c r="C131" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D131" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E131" s="9">
-        <v>8</v>
-      </c>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9" t="s">
+      <c r="E131" s="10">
+        <v>8</v>
+      </c>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="132" hidden="1" customHeight="1" spans="1:8">
-      <c r="A132" s="7" t="s">
+    <row r="132" customHeight="1" spans="1:7">
+      <c r="A132" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C132" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D132" s="9" t="s">
+      <c r="C132" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D132" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E132" s="9">
-        <v>8</v>
-      </c>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9" t="s">
+      <c r="E132" s="10">
+        <v>8</v>
+      </c>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="133" hidden="1" customHeight="1" spans="1:8">
-      <c r="A133" s="7" t="s">
+    <row r="133" customHeight="1" spans="1:7">
+      <c r="A133" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C133" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D133" s="9" t="s">
+      <c r="C133" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D133" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E133" s="9">
-        <v>8</v>
-      </c>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" hidden="1" customHeight="1" spans="1:8">
-      <c r="A134" s="7" t="s">
+      <c r="E133" s="10">
+        <v>8</v>
+      </c>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:7">
+      <c r="A134" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C134" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D134" s="9" t="s">
+      <c r="C134" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D134" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E134" s="9">
-        <v>8</v>
-      </c>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9" t="s">
+      <c r="E134" s="10">
+        <v>8</v>
+      </c>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="135" hidden="1" customHeight="1" spans="1:8">
-      <c r="A135" s="7" t="s">
+    <row r="135" customHeight="1" spans="1:7">
+      <c r="A135" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C135" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D135" s="9" t="s">
+      <c r="C135" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D135" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E135" s="9">
-        <v>8</v>
-      </c>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9" t="s">
+      <c r="E135" s="10">
+        <v>8</v>
+      </c>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="136" hidden="1" customHeight="1" spans="1:8">
-      <c r="A136" s="7" t="s">
+    <row r="136" customHeight="1" spans="1:7">
+      <c r="A136" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C136" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D136" s="9" t="s">
+      <c r="C136" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D136" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E136" s="9">
-        <v>8</v>
-      </c>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9" t="s">
+      <c r="E136" s="10">
+        <v>8</v>
+      </c>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="137" hidden="1" customHeight="1" spans="1:8">
-      <c r="A137" s="7" t="s">
+    <row r="137" customHeight="1" spans="1:7">
+      <c r="A137" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C137" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D137" s="9" t="s">
+      <c r="C137" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D137" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E137" s="9">
-        <v>8</v>
-      </c>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9" t="s">
+      <c r="E137" s="10">
+        <v>8</v>
+      </c>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="138" hidden="1" customHeight="1" spans="1:8">
-      <c r="A138" s="7" t="s">
+    <row r="138" customHeight="1" spans="1:7">
+      <c r="A138" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C138" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D138" s="9" t="s">
+      <c r="C138" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D138" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E138" s="9">
-        <v>8</v>
-      </c>
-      <c r="G138" s="9"/>
-      <c r="H138" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" hidden="1" customHeight="1" spans="1:8">
-      <c r="A139" s="7" t="s">
+      <c r="E138" s="10">
+        <v>8</v>
+      </c>
+      <c r="F138" s="10"/>
+      <c r="G138" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:7">
+      <c r="A139" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C139" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D139" s="9" t="s">
+      <c r="C139" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D139" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E139" s="9">
-        <v>5</v>
-      </c>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9" t="s">
+      <c r="E139" s="10">
+        <v>5</v>
+      </c>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="140" hidden="1" customHeight="1" spans="1:8">
-      <c r="A140" s="7" t="s">
+    <row r="140" customHeight="1" spans="1:7">
+      <c r="A140" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="C140" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D140" s="9" t="s">
+      <c r="C140" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D140" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E140" s="9">
-        <v>5</v>
-      </c>
-      <c r="G140" s="9"/>
-      <c r="H140" s="10" t="s">
+      <c r="E140" s="10">
+        <v>5</v>
+      </c>
+      <c r="F140" s="10"/>
+      <c r="G140" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="141" hidden="1" customHeight="1" spans="1:8">
-      <c r="A141" s="7" t="s">
+    <row r="141" customHeight="1" spans="1:7">
+      <c r="A141" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="C141" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D141" s="9" t="s">
+      <c r="C141" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D141" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E141" s="9">
-        <v>5</v>
-      </c>
-      <c r="G141" s="9"/>
-      <c r="H141" s="10" t="s">
+      <c r="E141" s="10">
+        <v>5</v>
+      </c>
+      <c r="F141" s="10"/>
+      <c r="G141" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="142" hidden="1" customHeight="1" spans="1:8">
-      <c r="A142" s="7" t="s">
+    <row r="142" customHeight="1" spans="1:7">
+      <c r="A142" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C142" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D142" s="9" t="s">
+      <c r="C142" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D142" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E142" s="9">
-        <v>5</v>
-      </c>
-      <c r="G142" s="9"/>
-      <c r="H142" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" hidden="1" customHeight="1" spans="1:8">
-      <c r="A143" s="7" t="s">
+      <c r="E142" s="10">
+        <v>5</v>
+      </c>
+      <c r="F142" s="10"/>
+      <c r="G142" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:7">
+      <c r="A143" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="B143" s="13" t="s">
+      <c r="B143" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="C143" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D143" s="9" t="s">
+      <c r="C143" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D143" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E143" s="9">
-        <v>5</v>
-      </c>
-      <c r="G143" s="9"/>
-      <c r="H143" s="13" t="s">
+      <c r="E143" s="10">
+        <v>5</v>
+      </c>
+      <c r="F143" s="10"/>
+      <c r="G143" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="144" hidden="1" customHeight="1" spans="1:8">
-      <c r="A144" s="7" t="s">
+    <row r="144" customHeight="1" spans="1:7">
+      <c r="A144" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B144" s="26" t="s">
+      <c r="B144" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C144" s="10" t="s">
         <v>136</v>
       </c>
       <c r="D144" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E144" s="9">
-        <v>5</v>
-      </c>
-      <c r="G144" s="31"/>
-      <c r="H144" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" customHeight="1" spans="1:8">
-      <c r="A145" s="7" t="s">
+      <c r="E144" s="10">
+        <v>5</v>
+      </c>
+      <c r="F144" s="26"/>
+      <c r="G144" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:7">
+      <c r="A145" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C145" s="17" t="s">
+      <c r="C145" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D145" s="8" t="s">
+      <c r="D145" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="E145" s="17">
-        <v>5</v>
-      </c>
-      <c r="G145" s="19" t="s">
+      <c r="E145" s="12">
+        <v>5</v>
+      </c>
+      <c r="F145" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H145" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" hidden="1" customHeight="1" spans="1:8">
-      <c r="A146" s="7" t="s">
+      <c r="G145" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:7">
+      <c r="A146" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C146" s="27" t="s">
+      <c r="C146" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D146" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E146" s="9">
-        <v>8</v>
-      </c>
-      <c r="G146" s="32"/>
-      <c r="H146" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" hidden="1" customHeight="1" spans="1:8">
-      <c r="A147" s="7" t="s">
+      <c r="E146" s="10">
+        <v>8</v>
+      </c>
+      <c r="F146" s="27"/>
+      <c r="G146" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:7">
+      <c r="A147" s="8" t="s">
         <v>310</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C147" s="27" t="s">
+      <c r="C147" s="22" t="s">
         <v>306</v>
       </c>
       <c r="D147" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="E147" s="9">
-        <v>8</v>
-      </c>
-      <c r="G147" s="27"/>
-      <c r="H147" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" hidden="1" customHeight="1" spans="1:8">
-      <c r="A148" s="7" t="s">
+      <c r="E147" s="10">
+        <v>8</v>
+      </c>
+      <c r="F147" s="22"/>
+      <c r="G147" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:7">
+      <c r="A148" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C148" s="27" t="s">
+      <c r="C148" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D148" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E148" s="9">
-        <v>8</v>
-      </c>
-      <c r="G148" s="27"/>
-      <c r="H148" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" hidden="1" customHeight="1" spans="1:8">
-      <c r="A149" s="7" t="s">
+      <c r="E148" s="10">
+        <v>8</v>
+      </c>
+      <c r="F148" s="22"/>
+      <c r="G148" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:7">
+      <c r="A149" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C149" s="27" t="s">
+      <c r="C149" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D149" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E149" s="9">
-        <v>8</v>
-      </c>
-      <c r="G149" s="27"/>
-      <c r="H149" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" hidden="1" customHeight="1" spans="1:8">
-      <c r="A150" s="7" t="s">
+      <c r="E149" s="10">
+        <v>8</v>
+      </c>
+      <c r="F149" s="22"/>
+      <c r="G149" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:7">
+      <c r="A150" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C150" s="27" t="s">
+      <c r="C150" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="D150" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E150" s="9">
-        <v>5</v>
-      </c>
-      <c r="G150" s="27"/>
-      <c r="H150" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" hidden="1" customHeight="1" spans="1:8">
-      <c r="A151" s="7" t="s">
+      <c r="E150" s="10">
+        <v>5</v>
+      </c>
+      <c r="F150" s="22"/>
+      <c r="G150" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:7">
+      <c r="A151" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="C151" s="27" t="s">
+      <c r="C151" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E151" s="9">
-        <v>5</v>
-      </c>
-      <c r="G151" s="27"/>
-      <c r="H151" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" hidden="1" customHeight="1" spans="1:8">
-      <c r="A152" s="7" t="s">
+      <c r="E151" s="10">
+        <v>5</v>
+      </c>
+      <c r="F151" s="22"/>
+      <c r="G151" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:7">
+      <c r="A152" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="C152" s="27" t="s">
+      <c r="C152" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D152" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E152" s="9">
-        <v>5</v>
-      </c>
-      <c r="G152" s="27"/>
-      <c r="H152" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="153" hidden="1" customHeight="1" spans="1:8">
-      <c r="A153" s="7" t="s">
+      <c r="E152" s="10">
+        <v>5</v>
+      </c>
+      <c r="F152" s="22"/>
+      <c r="G152" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:7">
+      <c r="A153" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="C153" s="27" t="s">
+      <c r="C153" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E153" s="9">
-        <v>5</v>
-      </c>
-      <c r="G153" s="27"/>
-      <c r="H153" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" hidden="1" customHeight="1" spans="1:8">
-      <c r="A154" s="7" t="s">
+      <c r="E153" s="10">
+        <v>5</v>
+      </c>
+      <c r="F153" s="22"/>
+      <c r="G153" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:7">
+      <c r="A154" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="C154" s="27" t="s">
+      <c r="C154" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E154" s="9">
-        <v>5</v>
-      </c>
-      <c r="G154" s="27"/>
-      <c r="H154" s="10" t="s">
+      <c r="E154" s="10">
+        <v>5</v>
+      </c>
+      <c r="F154" s="22"/>
+      <c r="G154" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="155" hidden="1" customHeight="1" spans="1:8">
-      <c r="A155" s="7" t="s">
+    <row r="155" customHeight="1" spans="1:7">
+      <c r="A155" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="B155" s="28" t="s">
+      <c r="B155" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C155" s="27" t="s">
+      <c r="C155" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E155" s="9">
-        <v>5</v>
-      </c>
-      <c r="G155" s="27"/>
-      <c r="H155" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="156" hidden="1" customHeight="1" spans="1:8">
-      <c r="A156" s="7" t="s">
+      <c r="E155" s="10">
+        <v>5</v>
+      </c>
+      <c r="F155" s="22"/>
+      <c r="G155" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:7">
+      <c r="A156" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="B156" s="28" t="s">
+      <c r="B156" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C156" s="27" t="s">
+      <c r="C156" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D156" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E156" s="9">
-        <v>5</v>
-      </c>
-      <c r="G156" s="27"/>
-      <c r="H156" s="9" t="s">
+      <c r="E156" s="10">
+        <v>5</v>
+      </c>
+      <c r="F156" s="22"/>
+      <c r="G156" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="157" hidden="1" customHeight="1" spans="1:8">
-      <c r="A157" s="7" t="s">
+    <row r="157" customHeight="1" spans="1:7">
+      <c r="A157" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="C157" s="27" t="s">
+      <c r="C157" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D157" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E157" s="9">
-        <v>5</v>
-      </c>
-      <c r="G157" s="27"/>
-      <c r="H157" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="158" hidden="1" customHeight="1" spans="1:8">
-      <c r="A158" s="7" t="s">
+      <c r="E157" s="10">
+        <v>5</v>
+      </c>
+      <c r="F157" s="22"/>
+      <c r="G157" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:7">
+      <c r="A158" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="C158" s="27" t="s">
+      <c r="C158" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D158" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E158" s="9">
-        <v>5</v>
-      </c>
-      <c r="G158" s="27"/>
-      <c r="H158" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="159" hidden="1" customHeight="1" spans="1:8">
-      <c r="A159" s="7" t="s">
+      <c r="E158" s="10">
+        <v>5</v>
+      </c>
+      <c r="F158" s="22"/>
+      <c r="G158" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="1:7">
+      <c r="A159" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="B159" s="13" t="s">
+      <c r="B159" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C159" s="27" t="s">
+      <c r="C159" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D159" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E159" s="9">
-        <v>5</v>
-      </c>
-      <c r="G159" s="27"/>
-      <c r="H159" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="160" hidden="1" customHeight="1" spans="1:8">
-      <c r="A160" s="7" t="s">
+      <c r="E159" s="10">
+        <v>5</v>
+      </c>
+      <c r="F159" s="22"/>
+      <c r="G159" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:7">
+      <c r="A160" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="C160" s="27" t="s">
+      <c r="C160" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E160" s="9">
-        <v>5</v>
-      </c>
-      <c r="G160" s="27"/>
-      <c r="H160" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="161" hidden="1" customHeight="1" spans="1:8">
-      <c r="A161" s="7" t="s">
+      <c r="E160" s="10">
+        <v>5</v>
+      </c>
+      <c r="F160" s="22"/>
+      <c r="G160" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="1:7">
+      <c r="A161" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C161" s="27" t="s">
+      <c r="C161" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E161" s="9">
-        <v>5</v>
-      </c>
-      <c r="G161" s="27"/>
-      <c r="H161" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="162" hidden="1" customHeight="1" spans="1:8">
-      <c r="A162" s="7" t="s">
+      <c r="E161" s="10">
+        <v>5</v>
+      </c>
+      <c r="F161" s="22"/>
+      <c r="G161" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:7">
+      <c r="A162" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="C162" s="27" t="s">
+      <c r="C162" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D162" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="E162" s="9">
-        <v>5</v>
-      </c>
-      <c r="G162" s="27"/>
-      <c r="H162" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" hidden="1" customHeight="1" spans="1:8">
-      <c r="A163" s="7" t="s">
+      <c r="E162" s="10">
+        <v>5</v>
+      </c>
+      <c r="F162" s="22"/>
+      <c r="G162" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="1:7">
+      <c r="A163" s="8" t="s">
         <v>342</v>
       </c>
       <c r="B163" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C163" s="29" t="s">
+      <c r="C163" s="24" t="s">
         <v>306</v>
       </c>
       <c r="D163" s="11" t="s">
@@ -5928,269 +5918,267 @@
       <c r="E163" s="11">
         <v>5</v>
       </c>
-      <c r="G163" s="33"/>
-      <c r="H163" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="164" customHeight="1" spans="1:8">
-      <c r="A164" s="7" t="s">
+      <c r="F163" s="28"/>
+      <c r="G163" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A164" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="D164" s="8" t="s">
+      <c r="D164" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E164" s="24">
+        <v>5</v>
+      </c>
+      <c r="F164" s="29"/>
+      <c r="G164" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="1:7">
+      <c r="A165" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="E164" s="17">
-        <v>5</v>
-      </c>
-      <c r="G164" s="19" t="s">
+      <c r="B165" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E165" s="12">
+        <v>5</v>
+      </c>
+      <c r="F165" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H164" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="165" hidden="1" customHeight="1" spans="1:8">
-      <c r="A165" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B165" s="9" t="s">
+      <c r="G165" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:7">
+      <c r="A166" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C166" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D166" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C165" s="27" t="s">
+      <c r="E166" s="10">
+        <v>8</v>
+      </c>
+      <c r="F166" s="27"/>
+      <c r="G166" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="1:7">
+      <c r="A167" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C167" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D165" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E165" s="9">
-        <v>8</v>
-      </c>
-      <c r="G165" s="32"/>
-      <c r="H165" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="166" hidden="1" customHeight="1" spans="1:8">
-      <c r="A166" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C166" s="27" t="s">
+      <c r="D167" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E167" s="10">
+        <v>8</v>
+      </c>
+      <c r="F167" s="22"/>
+      <c r="G167" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="1:7">
+      <c r="A168" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C168" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D166" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E166" s="9">
-        <v>8</v>
-      </c>
-      <c r="G166" s="27"/>
-      <c r="H166" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="167" hidden="1" customHeight="1" spans="1:8">
-      <c r="A167" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C167" s="27" t="s">
+      <c r="D168" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E168" s="10">
+        <v>5</v>
+      </c>
+      <c r="F168" s="22"/>
+      <c r="G168" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="1:7">
+      <c r="A169" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C169" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D167" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E167" s="9">
-        <v>5</v>
-      </c>
-      <c r="G167" s="27"/>
-      <c r="H167" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="168" hidden="1" customHeight="1" spans="1:8">
-      <c r="A168" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="B168" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="C168" s="27" t="s">
+      <c r="D169" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E169" s="10">
+        <v>3</v>
+      </c>
+      <c r="F169" s="22"/>
+      <c r="G169" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:7">
+      <c r="A170" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C170" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D168" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="E168" s="9">
-        <v>3</v>
-      </c>
-      <c r="G168" s="27"/>
-      <c r="H168" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" hidden="1" customHeight="1" spans="1:8">
-      <c r="A169" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C169" s="27" t="s">
+      <c r="D170" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E170" s="10">
+        <v>5</v>
+      </c>
+      <c r="F170" s="22"/>
+      <c r="G170" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="1:7">
+      <c r="A171" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C171" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D169" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E169" s="9">
-        <v>5</v>
-      </c>
-      <c r="G169" s="27"/>
-      <c r="H169" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="170" hidden="1" customHeight="1" spans="1:8">
-      <c r="A170" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="C170" s="27" t="s">
+      <c r="D171" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E171" s="10">
+        <v>5</v>
+      </c>
+      <c r="F171" s="22"/>
+      <c r="G171" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="1:7">
+      <c r="A172" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C172" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D170" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E170" s="9">
-        <v>5</v>
-      </c>
-      <c r="G170" s="27"/>
-      <c r="H170" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" hidden="1" customHeight="1" spans="1:8">
-      <c r="A171" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="C171" s="27" t="s">
+      <c r="D172" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E172" s="10">
+        <v>5</v>
+      </c>
+      <c r="F172" s="30"/>
+      <c r="G172" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="1:7">
+      <c r="A173" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B173" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C173" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="D171" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E171" s="9">
-        <v>5</v>
-      </c>
-      <c r="G171" s="34"/>
-      <c r="H171" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" hidden="1" customHeight="1" spans="1:8">
-      <c r="A172" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="B172" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="C172" s="29" t="s">
+      <c r="D173" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E173" s="31">
+        <v>5</v>
+      </c>
+      <c r="F173" s="29"/>
+      <c r="G173" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="1:7">
+      <c r="A174" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B174" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C174" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="D172" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E172" s="35">
-        <v>5</v>
-      </c>
-      <c r="G172" s="36"/>
-      <c r="H172" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="173" hidden="1" customHeight="1" spans="1:8">
-      <c r="A173" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="B173" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="C173" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="D173" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E173" s="35">
-        <v>5</v>
-      </c>
-      <c r="G173" s="36"/>
-      <c r="H173" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" hidden="1" customHeight="1" spans="1:8">
-      <c r="A174" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C174" s="8" t="s">
+      <c r="D174" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E174" s="31">
+        <v>5</v>
+      </c>
+      <c r="F174" s="29"/>
+      <c r="G174" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="1:7">
+      <c r="A175" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C175" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D174" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E174" s="17">
-        <v>5</v>
-      </c>
-      <c r="G174" s="19"/>
-      <c r="H174" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" customHeight="1" spans="1:8">
-      <c r="A175" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="B175" s="8" t="s">
+      <c r="D175" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C175" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E175" s="17">
-        <v>5</v>
-      </c>
-      <c r="G175" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H175" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" hidden="1" customHeight="1" spans="1:8">
-      <c r="A176" s="7" t="s">
+      <c r="E175" s="12">
+        <v>5</v>
+      </c>
+      <c r="F175" s="14"/>
+      <c r="G175" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="1:7">
+      <c r="A176" s="8" t="s">
         <v>370</v>
       </c>
       <c r="B176" s="9" t="s">
@@ -6200,493 +6188,510 @@
         <v>72</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E176" s="9">
-        <v>8</v>
-      </c>
-      <c r="G176" s="20"/>
-      <c r="H176" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" hidden="1" customHeight="1" spans="1:8">
-      <c r="A177" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E176" s="12">
+        <v>5</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G176" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" customHeight="1" spans="1:7">
+      <c r="A177" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C177" s="9" t="s">
+      <c r="C177" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D177" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E177" s="9">
-        <v>8</v>
-      </c>
-      <c r="G177" s="9"/>
-      <c r="H177" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="178" hidden="1" customHeight="1" spans="1:8">
-      <c r="A178" s="7" t="s">
+      <c r="D177" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E177" s="10">
+        <v>8</v>
+      </c>
+      <c r="F177" s="15"/>
+      <c r="G177" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="1:7">
+      <c r="A178" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="C178" s="9" t="s">
+      <c r="C178" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D178" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E178" s="9">
-        <v>8</v>
-      </c>
-      <c r="G178" s="9"/>
-      <c r="H178" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" hidden="1" customHeight="1" spans="1:8">
-      <c r="A179" s="7" t="s">
+      <c r="D178" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E178" s="10">
+        <v>8</v>
+      </c>
+      <c r="F178" s="10"/>
+      <c r="G178" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="1:7">
+      <c r="A179" s="8" t="s">
         <v>376</v>
       </c>
       <c r="B179" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C179" s="9" t="s">
+      <c r="C179" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D179" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E179" s="9">
-        <v>8</v>
-      </c>
-      <c r="G179" s="9"/>
-      <c r="H179" s="10" t="s">
+      <c r="D179" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E179" s="10">
+        <v>8</v>
+      </c>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="1:7">
+      <c r="A180" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E180" s="10">
+        <v>8</v>
+      </c>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="180" hidden="1" customHeight="1" spans="1:8">
-      <c r="A180" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="C180" s="9" t="s">
+    <row r="181" customHeight="1" spans="1:7">
+      <c r="A181" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C181" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D180" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E180" s="9">
-        <v>8</v>
-      </c>
-      <c r="G180" s="9"/>
-      <c r="H180" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" hidden="1" customHeight="1" spans="1:8">
-      <c r="A181" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="C181" s="9" t="s">
+      <c r="D181" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E181" s="10">
+        <v>8</v>
+      </c>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="1:7">
+      <c r="A182" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C182" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D181" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E181" s="9">
-        <v>8</v>
-      </c>
-      <c r="G181" s="9"/>
-      <c r="H181" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" hidden="1" customHeight="1" spans="1:8">
-      <c r="A182" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C182" s="9" t="s">
+      <c r="D182" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E182" s="10">
+        <v>8</v>
+      </c>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="1:7">
+      <c r="A183" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C183" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D182" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E182" s="9">
-        <v>8</v>
-      </c>
-      <c r="G182" s="9"/>
-      <c r="H182" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="183" hidden="1" customHeight="1" spans="1:8">
-      <c r="A183" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C183" s="9" t="s">
+      <c r="D183" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E183" s="10">
+        <v>8</v>
+      </c>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" customHeight="1" spans="1:7">
+      <c r="A184" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C184" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D183" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E183" s="9">
-        <v>8</v>
-      </c>
-      <c r="G183" s="9"/>
-      <c r="H183" s="9" t="s">
+      <c r="D184" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E184" s="10">
+        <v>8</v>
+      </c>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="184" hidden="1" customHeight="1" spans="1:8">
-      <c r="A184" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D184" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E184" s="9">
-        <v>5</v>
-      </c>
-      <c r="G184" s="9"/>
-      <c r="H184" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" hidden="1" customHeight="1" spans="1:8">
-      <c r="A185" s="7" t="s">
+    <row r="185" customHeight="1" spans="1:7">
+      <c r="A185" s="8" t="s">
         <v>388</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C185" s="9" t="s">
+      <c r="C185" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D185" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E185" s="9">
-        <v>5</v>
-      </c>
-      <c r="G185" s="9"/>
-      <c r="H185" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="186" hidden="1" customHeight="1" spans="1:8">
-      <c r="A186" s="7" t="s">
+      <c r="D185" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E185" s="10">
+        <v>5</v>
+      </c>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="1:7">
+      <c r="A186" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B186" s="13" t="s">
+      <c r="B186" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C186" s="9" t="s">
+      <c r="C186" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D186" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E186" s="9">
-        <v>5</v>
-      </c>
-      <c r="G186" s="9"/>
-      <c r="H186" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="187" hidden="1" customHeight="1" spans="1:8">
-      <c r="A187" s="7" t="s">
+      <c r="D186" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E186" s="10">
+        <v>5</v>
+      </c>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="1:7">
+      <c r="A187" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="B187" s="26" t="s">
+      <c r="B187" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="C187" s="11" t="s">
+      <c r="C187" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D187" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="E187" s="11">
-        <v>5</v>
-      </c>
-      <c r="G187" s="22"/>
-      <c r="H187" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="188" hidden="1" customHeight="1" spans="1:8">
-      <c r="A188" s="7" t="s">
+      <c r="D187" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E187" s="10">
+        <v>5</v>
+      </c>
+      <c r="F187" s="10"/>
+      <c r="G187" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" customHeight="1" spans="1:7">
+      <c r="A188" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B188" s="25" t="s">
+      <c r="B188" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="C188" s="17" t="s">
+      <c r="C188" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="E188" s="11">
+        <v>5</v>
+      </c>
+      <c r="F188" s="17"/>
+      <c r="G188" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="1:7">
+      <c r="A189" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B189" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="C189" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D188" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="E188" s="17">
-        <v>5</v>
-      </c>
-      <c r="G188" s="19"/>
-      <c r="H188" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" customHeight="1" spans="1:8">
-      <c r="A189" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B189" s="8" t="s">
+      <c r="D189" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="C189" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="D189" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="E189" s="17">
-        <v>5</v>
-      </c>
-      <c r="G189" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H189" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="190" hidden="1" customHeight="1" spans="1:8">
-      <c r="A190" s="7" t="s">
+      <c r="E189" s="12">
+        <v>5</v>
+      </c>
+      <c r="F189" s="14"/>
+      <c r="G189" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="1:7">
+      <c r="A190" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B190" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C190" s="27" t="s">
+      <c r="C190" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D190" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="E190" s="9">
-        <v>8</v>
-      </c>
-      <c r="G190" s="32"/>
-      <c r="H190" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="191" hidden="1" customHeight="1" spans="1:8">
-      <c r="A191" s="7" t="s">
+      <c r="D190" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E190" s="12">
+        <v>5</v>
+      </c>
+      <c r="F190" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G190" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" customHeight="1" spans="1:7">
+      <c r="A191" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B191" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C191" s="27" t="s">
+      <c r="C191" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D191" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="E191" s="9">
-        <v>8</v>
-      </c>
-      <c r="G191" s="27"/>
-      <c r="H191" s="9" t="s">
+      <c r="D191" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="E191" s="10">
+        <v>8</v>
+      </c>
+      <c r="F191" s="27"/>
+      <c r="G191" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" customHeight="1" spans="1:7">
+      <c r="A192" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C192" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D192" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="E192" s="10">
+        <v>8</v>
+      </c>
+      <c r="F192" s="22"/>
+      <c r="G192" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="192" hidden="1" customHeight="1" spans="1:8">
-      <c r="A192" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C192" s="27" t="s">
+    <row r="193" customHeight="1" spans="1:7">
+      <c r="A193" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C193" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D192" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="E192" s="9">
-        <v>5</v>
-      </c>
-      <c r="G192" s="27"/>
-      <c r="H192" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="193" hidden="1" customHeight="1" spans="1:8">
-      <c r="A193" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="C193" s="27" t="s">
+      <c r="D193" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E193" s="10">
+        <v>5</v>
+      </c>
+      <c r="F193" s="22"/>
+      <c r="G193" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" customHeight="1" spans="1:7">
+      <c r="A194" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C194" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D193" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="E193" s="9">
-        <v>8</v>
-      </c>
-      <c r="G193" s="27"/>
-      <c r="H193" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="194" hidden="1" customHeight="1" spans="1:8">
-      <c r="A194" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="C194" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="D194" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="E194" s="9">
-        <v>8</v>
-      </c>
-      <c r="G194" s="27"/>
-      <c r="H194" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195" hidden="1" customHeight="1" spans="1:8">
-      <c r="A195" s="7" t="s">
+      <c r="D194" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E194" s="10">
+        <v>8</v>
+      </c>
+      <c r="F194" s="22"/>
+      <c r="G194" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" customHeight="1" spans="1:7">
+      <c r="A195" s="8" t="s">
         <v>409</v>
       </c>
       <c r="B195" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C195" s="27" t="s">
+      <c r="C195" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D195" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="E195" s="9">
-        <v>8</v>
-      </c>
-      <c r="G195" s="27"/>
-      <c r="H195" s="10" t="s">
+      <c r="D195" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E195" s="10">
+        <v>8</v>
+      </c>
+      <c r="F195" s="22"/>
+      <c r="G195" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" customHeight="1" spans="1:7">
+      <c r="A196" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E196" s="10">
+        <v>8</v>
+      </c>
+      <c r="F196" s="22"/>
+      <c r="G196" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="196" hidden="1" customHeight="1" spans="1:8">
-      <c r="A196" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B196" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="C196" s="27" t="s">
+    <row r="197" customHeight="1" spans="1:7">
+      <c r="A197" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C197" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D196" s="27" t="s">
-        <v>396</v>
-      </c>
-      <c r="E196" s="9">
-        <v>5</v>
-      </c>
-      <c r="G196" s="27"/>
-      <c r="H196" s="28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="197" hidden="1" customHeight="1" spans="1:8">
-      <c r="A197" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="B197" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="C197" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="D197" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="E197" s="9">
-        <v>5</v>
-      </c>
-      <c r="G197" s="27"/>
-      <c r="H197" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="198" hidden="1" customHeight="1" spans="1:8">
-      <c r="A198" s="7" t="s">
+      <c r="D197" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E197" s="10">
+        <v>5</v>
+      </c>
+      <c r="F197" s="22"/>
+      <c r="G197" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" customHeight="1" spans="1:7">
+      <c r="A198" s="8" t="s">
         <v>415</v>
       </c>
       <c r="B198" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C198" s="27" t="s">
+      <c r="C198" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D198" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="E198" s="9">
-        <v>5</v>
-      </c>
-      <c r="G198" s="27"/>
-      <c r="H198" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="199" customHeight="1" spans="3:7">
-      <c r="C199" s="38"/>
-      <c r="E199" s="38"/>
-      <c r="G199" s="38"/>
+      <c r="D198" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E198" s="10">
+        <v>5</v>
+      </c>
+      <c r="F198" s="22"/>
+      <c r="G198" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" customHeight="1" spans="1:7">
+      <c r="A199" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B199" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="C199" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E199" s="10">
+        <v>5</v>
+      </c>
+      <c r="F199" s="22"/>
+      <c r="G199" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" customHeight="1" spans="3:6">
+      <c r="C200" s="33"/>
+      <c r="E200" s="33"/>
+      <c r="F200" s="33"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G198" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="系主任"/>
-        <filter val="离职"/>
-      </filters>
-    </filterColumn>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:G199" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6701,7 +6706,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
